--- a/Honorsproject.xlsx
+++ b/Honorsproject.xlsx
@@ -513,6 +513,79 @@
     <col width="3" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="3" customWidth="1" min="26" max="26"/>
+    <col width="3" customWidth="1" min="27" max="27"/>
+    <col width="3" customWidth="1" min="28" max="28"/>
+    <col width="3" customWidth="1" min="29" max="29"/>
+    <col width="3" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="3" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="3" customWidth="1" min="35" max="35"/>
+    <col width="3" customWidth="1" min="36" max="36"/>
+    <col width="3" customWidth="1" min="37" max="37"/>
+    <col width="3" customWidth="1" min="38" max="38"/>
+    <col width="3" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="3" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="3" customWidth="1" min="44" max="44"/>
+    <col width="3" customWidth="1" min="45" max="45"/>
+    <col width="3" customWidth="1" min="46" max="46"/>
+    <col width="3" customWidth="1" min="47" max="47"/>
+    <col width="3" customWidth="1" min="48" max="48"/>
+    <col width="3" customWidth="1" min="49" max="49"/>
+    <col width="3" customWidth="1" min="50" max="50"/>
+    <col width="3" customWidth="1" min="51" max="51"/>
+    <col width="3" customWidth="1" min="52" max="52"/>
+    <col width="3" customWidth="1" min="53" max="53"/>
+    <col width="3" customWidth="1" min="54" max="54"/>
+    <col width="3" customWidth="1" min="55" max="55"/>
+    <col width="3" customWidth="1" min="56" max="56"/>
+    <col width="3" customWidth="1" min="57" max="57"/>
+    <col width="3" customWidth="1" min="58" max="58"/>
+    <col width="3" customWidth="1" min="59" max="59"/>
+    <col width="3" customWidth="1" min="60" max="60"/>
+    <col width="3" customWidth="1" min="61" max="61"/>
+    <col width="3" customWidth="1" min="62" max="62"/>
+    <col width="3" customWidth="1" min="63" max="63"/>
+    <col width="3" customWidth="1" min="64" max="64"/>
+    <col width="3" customWidth="1" min="65" max="65"/>
+    <col width="3" customWidth="1" min="66" max="66"/>
+    <col width="3" customWidth="1" min="67" max="67"/>
+    <col width="3" customWidth="1" min="68" max="68"/>
+    <col width="3" customWidth="1" min="69" max="69"/>
+    <col width="3" customWidth="1" min="70" max="70"/>
+    <col width="3" customWidth="1" min="71" max="71"/>
+    <col width="3" customWidth="1" min="72" max="72"/>
+    <col width="3" customWidth="1" min="73" max="73"/>
+    <col width="3" customWidth="1" min="74" max="74"/>
+    <col width="3" customWidth="1" min="75" max="75"/>
+    <col width="3" customWidth="1" min="76" max="76"/>
+    <col width="3" customWidth="1" min="77" max="77"/>
+    <col width="3" customWidth="1" min="78" max="78"/>
+    <col width="3" customWidth="1" min="79" max="79"/>
+    <col width="3" customWidth="1" min="80" max="80"/>
+    <col width="3" customWidth="1" min="81" max="81"/>
+    <col width="3" customWidth="1" min="82" max="82"/>
+    <col width="3" customWidth="1" min="83" max="83"/>
+    <col width="3" customWidth="1" min="84" max="84"/>
+    <col width="3" customWidth="1" min="85" max="85"/>
+    <col width="3" customWidth="1" min="86" max="86"/>
+    <col width="3" customWidth="1" min="87" max="87"/>
+    <col width="3" customWidth="1" min="88" max="88"/>
+    <col width="3" customWidth="1" min="89" max="89"/>
+    <col width="3" customWidth="1" min="90" max="90"/>
+    <col width="3" customWidth="1" min="91" max="91"/>
+    <col width="3" customWidth="1" min="92" max="92"/>
+    <col width="3" customWidth="1" min="93" max="93"/>
+    <col width="3" customWidth="1" min="94" max="94"/>
+    <col width="3" customWidth="1" min="95" max="95"/>
+    <col width="3" customWidth="1" min="96" max="96"/>
+    <col width="3" customWidth="1" min="97" max="97"/>
+    <col width="3" customWidth="1" min="98" max="98"/>
+    <col width="3" customWidth="1" min="99" max="99"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1"/>
